--- a/src/test/resources/Features/amazon_product.xlsx
+++ b/src/test/resources/Features/amazon_product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pragtiwa\IdeaProjects\Cucumber_Amazon\src\test\resources\Features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575AD73B-76A3-4811-88E8-23CA9DE6A4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D315E11-704D-49F6-A4DB-0508E603BAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3270753D-C314-4D5A-BB79-53F083533A82}"/>
   </bookViews>
@@ -38,40 +38,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
+    <t>chocolates</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>TypeValue</t>
+  </si>
+  <si>
+    <t>Verify user is able to select category</t>
+  </si>
+  <si>
+    <t>Verify user is able to enter address</t>
+  </si>
+  <si>
+    <t>Verify user is able to</t>
+  </si>
+  <si>
+    <t>Beauty</t>
+  </si>
+  <si>
+    <t>847212'</t>
+  </si>
+  <si>
+    <t>Verify user is able to sort results</t>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
     <t>status</t>
   </si>
   <si>
-    <t>chocolates</t>
-  </si>
-  <si>
-    <t>Scenarios</t>
-  </si>
-  <si>
-    <t>TypeValue</t>
-  </si>
-  <si>
     <t>Verify user is able to search a product</t>
-  </si>
-  <si>
-    <t>Verify user is able to select category</t>
-  </si>
-  <si>
-    <t>Verify user is able to enter address</t>
-  </si>
-  <si>
-    <t>Verify user is able to see product price</t>
-  </si>
-  <si>
-    <t>Verify user is able to</t>
-  </si>
-  <si>
-    <t>Beauty</t>
-  </si>
-  <si>
-    <t>847212'</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -447,41 +447,41 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -491,7 +491,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
